--- a/Spring/trainer feedback template.xlsx
+++ b/Spring/trainer feedback template.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>S.NO</t>
   </si>
@@ -48,6 +43,9 @@
   </si>
   <si>
     <t xml:space="preserve">TRAINER RATING </t>
+  </si>
+  <si>
+    <t>Git link of the assignment an assessment</t>
   </si>
 </sst>
 </file>
@@ -365,7 +363,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -373,42 +371,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -420,6 +418,9 @@
       </c>
       <c r="D6" t="s">
         <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
